--- a/Wyniki 3/S1/S1-GraphQL.xlsx
+++ b/Wyniki 3/S1/S1-GraphQL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A25F8C-4AB6-4C77-9DF9-CFC960D1A2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC11B4-A7E9-4C46-95B5-7AD2A7FAB11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>1,4GB</t>
-  </si>
-  <si>
-    <t>897,9 µs</t>
   </si>
   <si>
     <t>310,9 µs</t>
@@ -590,18 +587,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
@@ -611,7 +608,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +626,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -648,6 +645,10 @@
       <c r="J9" s="1">
         <v>1.51</v>
       </c>
+      <c r="K9">
+        <f>AVERAGE(G9:J9)</f>
+        <v>1.4775</v>
+      </c>
       <c r="M9" s="1">
         <v>1.07</v>
       </c>
@@ -658,7 +659,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -675,6 +676,10 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K38" si="0">AVERAGE(G10:J10)</f>
+        <v>0</v>
+      </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
@@ -685,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -702,6 +707,10 @@
       <c r="J11" s="1">
         <v>144.63</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>113.04</v>
+      </c>
       <c r="M11" s="1">
         <v>141.19999999999999</v>
       </c>
@@ -712,7 +721,7 @@
         <v>144.94999999999999</v>
       </c>
     </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
@@ -729,6 +738,10 @@
       <c r="J12" s="1">
         <v>2.39</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2.3449999999999998</v>
+      </c>
       <c r="M12" s="1">
         <v>1.68</v>
       </c>
@@ -739,7 +752,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -756,6 +769,10 @@
       <c r="J13" s="1">
         <v>2.72</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
       <c r="M13" s="1">
         <v>1.94</v>
       </c>
@@ -766,7 +783,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -783,6 +800,10 @@
       <c r="J14" s="1">
         <v>83952</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>83954</v>
+      </c>
       <c r="M14" s="1">
         <v>83990</v>
       </c>
@@ -793,7 +814,7 @@
         <v>83991</v>
       </c>
     </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -810,6 +831,10 @@
       <c r="J15" s="1">
         <v>960.9</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>960.82499999999993</v>
+      </c>
       <c r="M15" s="1">
         <v>964</v>
       </c>
@@ -820,7 +845,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -837,6 +862,10 @@
       <c r="J16" s="1">
         <v>87.37</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>87.377499999999998</v>
+      </c>
       <c r="M16" s="1">
         <v>87.45</v>
       </c>
@@ -847,7 +876,7 @@
         <v>87.46</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -862,7 +891,11 @@
         <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="M17" s="1">
         <v>48</v>
@@ -874,7 +907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -889,7 +922,11 @@
         <v>48</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="M18" s="1">
         <v>7.7</v>
@@ -901,7 +938,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E19" s="7">
         <v>1000</v>
       </c>
@@ -911,8 +948,8 @@
       <c r="G19" s="2">
         <v>1.21</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>18</v>
+      <c r="H19" s="2">
+        <v>0.89790000000000003</v>
       </c>
       <c r="I19" s="2">
         <v>1.39</v>
@@ -920,6 +957,10 @@
       <c r="J19" s="2">
         <v>1.1399999999999999</v>
       </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1.1594749999999998</v>
+      </c>
       <c r="M19" s="2" t="s">
         <v>12</v>
       </c>
@@ -930,7 +971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -947,6 +988,10 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
@@ -957,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -974,6 +1019,10 @@
       <c r="J21" s="2">
         <v>141.74</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>143.52250000000001</v>
+      </c>
       <c r="M21" s="2">
         <v>145.07</v>
       </c>
@@ -984,7 +1033,7 @@
         <v>39.97</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -1001,6 +1050,10 @@
       <c r="J22" s="2">
         <v>2.06</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>2.0674999999999999</v>
+      </c>
       <c r="M22" s="2">
         <v>1.05</v>
       </c>
@@ -1011,7 +1064,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E23" s="7"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -1028,6 +1081,10 @@
       <c r="J23" s="2">
         <v>2.59</v>
       </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>2.6574999999999998</v>
+      </c>
       <c r="M23" s="2">
         <v>1.21</v>
       </c>
@@ -1038,7 +1095,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1055,6 +1112,10 @@
       <c r="J24" s="2">
         <v>839284</v>
       </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>839315.5</v>
+      </c>
       <c r="M24" s="2">
         <v>839752</v>
       </c>
@@ -1065,7 +1126,7 @@
         <v>839742</v>
       </c>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -1082,6 +1143,10 @@
       <c r="J25" s="2">
         <v>960.6</v>
       </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>960.6</v>
+      </c>
       <c r="M25" s="2">
         <v>961</v>
       </c>
@@ -1092,7 +1157,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -1109,6 +1174,10 @@
       <c r="J26" s="2">
         <v>873.68</v>
       </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>873.73</v>
+      </c>
       <c r="M26" s="2">
         <v>873.85</v>
       </c>
@@ -1119,7 +1188,7 @@
         <v>873.86</v>
       </c>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1134,7 +1203,11 @@
         <v>550</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>550</v>
       </c>
       <c r="M27" s="2">
         <v>477</v>
@@ -1146,7 +1219,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1161,7 +1234,11 @@
         <v>482</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>482</v>
       </c>
       <c r="M28" s="2">
         <v>77</v>
@@ -1173,7 +1250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E29" s="6">
         <v>4000</v>
       </c>
@@ -1192,6 +1269,10 @@
       <c r="J29" s="1">
         <v>377.09</v>
       </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>383.08749999999998</v>
+      </c>
       <c r="M29" s="1">
         <v>3.02</v>
       </c>
@@ -1202,7 +1283,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -1219,6 +1300,10 @@
       <c r="J30" s="1">
         <v>0</v>
       </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M30" s="1">
         <v>0</v>
       </c>
@@ -1229,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -1246,6 +1331,10 @@
       <c r="J31" s="1">
         <v>719.47</v>
       </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>962.65499999999997</v>
+      </c>
       <c r="M31" s="1">
         <v>56.97</v>
       </c>
@@ -1256,7 +1345,7 @@
         <v>67.72</v>
       </c>
     </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
@@ -1273,6 +1362,10 @@
       <c r="J32" s="1">
         <v>468.66</v>
       </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>566.63</v>
+      </c>
       <c r="M32" s="1">
         <v>6.2</v>
       </c>
@@ -1283,7 +1376,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="6"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -1300,6 +1393,10 @@
       <c r="J33" s="1">
         <v>485.1</v>
       </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>582.80250000000001</v>
+      </c>
       <c r="M33" s="1">
         <v>8.26</v>
       </c>
@@ -1310,7 +1407,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="6"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -1327,6 +1424,10 @@
       <c r="J34" s="1">
         <v>2440894</v>
       </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>2430712.25</v>
+      </c>
       <c r="M34" s="1">
         <v>3350870</v>
       </c>
@@ -1337,7 +1438,7 @@
         <v>3350455</v>
       </c>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -1354,6 +1455,10 @@
       <c r="J35" s="1">
         <v>960.8</v>
       </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>960.82500000000005</v>
+      </c>
       <c r="M35" s="1">
         <v>961</v>
       </c>
@@ -1364,7 +1469,7 @@
         <v>960.5</v>
       </c>
     </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -1381,6 +1486,10 @@
       <c r="J36" s="1">
         <v>2540.61</v>
       </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>2529.8875000000003</v>
+      </c>
       <c r="M36" s="1">
         <v>3486.98</v>
       </c>
@@ -1391,7 +1500,7 @@
         <v>3488.28</v>
       </c>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
       <c r="F37" s="1" t="s">
         <v>9</v>
@@ -1408,6 +1517,10 @@
       <c r="J37" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="K37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M37" s="1">
         <v>1945.6</v>
       </c>
@@ -1418,7 +1531,7 @@
         <v>1945.6</v>
       </c>
     </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E38" s="6"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -1434,6 +1547,10 @@
       </c>
       <c r="J38" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M38" s="1">
         <v>308</v>
@@ -1458,21 +1575,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4FD128-804F-4FC8-966B-DED231E7146F}">
-  <dimension ref="E7:N38"/>
+  <dimension ref="E7:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="E8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1480,7 +1597,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1615,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -1517,26 +1634,34 @@
       <c r="J9" s="1">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <f>AVERAGE(G9:J9)</f>
+        <v>2.9124999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" ref="K10:K28" si="0">AVERAGE(G10:J10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -1553,8 +1678,12 @@
       <c r="J11" s="1">
         <v>143.72</v>
       </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>473.08749999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
@@ -1571,8 +1700,12 @@
       <c r="J12" s="1">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>3.9525000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -1589,8 +1722,12 @@
       <c r="J13" s="1">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -1607,8 +1744,12 @@
       <c r="J14" s="1">
         <v>83808</v>
       </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>83799.25</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -1625,8 +1766,12 @@
       <c r="J15" s="1">
         <v>960.6</v>
       </c>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -1643,11 +1788,15 @@
       <c r="J16" s="1">
         <v>87.25</v>
       </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>87.24</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1">
         <v>3.2</v>
@@ -1656,13 +1805,17 @@
         <v>3.2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1674,13 +1827,17 @@
         <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E19" s="7">
         <v>1000</v>
       </c>
@@ -1699,26 +1856,34 @@
       <c r="J19" s="2">
         <v>1070</v>
       </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1047.5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -1735,8 +1900,12 @@
       <c r="J21" s="2">
         <v>1660</v>
       </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -1753,8 +1922,12 @@
       <c r="J22" s="2">
         <v>1260</v>
       </c>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E23" s="7"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -1771,8 +1944,12 @@
       <c r="J23" s="2">
         <v>1280</v>
       </c>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1789,8 +1966,12 @@
       <c r="J24" s="2">
         <v>404463</v>
       </c>
-    </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>409197.75</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -1807,8 +1988,12 @@
       <c r="J25" s="2">
         <v>960.6</v>
       </c>
-    </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>960.57499999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -1825,11 +2010,15 @@
       <c r="J26" s="2">
         <v>421.06</v>
       </c>
-    </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>425.99</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2">
         <v>16</v>
@@ -1841,10 +2030,14 @@
         <v>16</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1859,10 +2052,14 @@
         <v>252</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="5:14" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>250.66666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E29" s="6">
         <v>4000</v>
       </c>
@@ -1893,38 +2090,46 @@
       <c r="N29" s="3">
         <v>6930</v>
       </c>
-    </row>
-    <row r="30" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="O29">
+        <f>AVERAGE(G29:N29)</f>
+        <v>6917.5</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="N30" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="5:14" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="O30" t="e">
+        <f t="shared" ref="O30:O38" si="1">AVERAGE(G30:N30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -1953,8 +2158,12 @@
       <c r="N31" s="3">
         <v>8590</v>
       </c>
-    </row>
-    <row r="32" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>8988.75</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
@@ -1983,8 +2192,12 @@
       <c r="N32" s="3">
         <v>7930</v>
       </c>
-    </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>8001.25</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="6"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -2013,8 +2226,12 @@
       <c r="N33" s="5">
         <v>8050</v>
       </c>
-    </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>8118.75</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="6"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -2043,8 +2260,12 @@
       <c r="N34" s="5">
         <v>424500</v>
       </c>
-    </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>425443.25</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -2073,8 +2294,12 @@
       <c r="N35" s="5">
         <v>960.5</v>
       </c>
-    </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>960.58749999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -2103,11 +2328,15 @@
       <c r="N36" s="5">
         <v>441.96</v>
       </c>
-    </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>442.90749999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
       <c r="F37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1">
         <v>16</v>
@@ -2116,25 +2345,29 @@
         <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E38" s="6"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -2146,22 +2379,26 @@
         <v>256</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2177,28 +2414,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
-  <dimension ref="E7:I38"/>
+  <dimension ref="E7:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -2229,21 +2466,29 @@
         <v>29.51</v>
       </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <f>AVERAGE(G9:H9)</f>
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J10" t="e">
+        <f t="shared" ref="J10:J38" si="0">AVERAGE(G10:H10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -2255,8 +2500,12 @@
         <v>394.53</v>
       </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>351.35500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
@@ -2268,8 +2517,12 @@
         <v>45.66</v>
       </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>41.424999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -2281,8 +2534,12 @@
         <v>51.33</v>
       </c>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>47.89</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -2294,8 +2551,12 @@
         <v>81531</v>
       </c>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>81803.5</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -2307,8 +2568,12 @@
         <v>960.5</v>
       </c>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>960.65</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -2320,11 +2585,15 @@
         <v>84.88</v>
       </c>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>85.15</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1">
         <v>15</v>
@@ -2333,8 +2602,12 @@
         <v>15</v>
       </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -2346,8 +2619,12 @@
         <v>50</v>
       </c>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="7">
         <v>1000</v>
       </c>
@@ -2361,8 +2638,12 @@
         <v>8060</v>
       </c>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -2371,11 +2652,15 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -2387,8 +2672,12 @@
         <v>10020</v>
       </c>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>10390</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -2400,8 +2689,12 @@
         <v>9200</v>
       </c>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>9260</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="7"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -2413,8 +2706,12 @@
         <v>9240</v>
       </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -2426,8 +2723,12 @@
         <v>92923</v>
       </c>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>92801</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -2439,8 +2740,12 @@
         <v>960.4</v>
       </c>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>960.55</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -2452,11 +2757,15 @@
         <v>96.75</v>
       </c>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>96.615000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2">
         <v>17</v>
@@ -2465,8 +2774,12 @@
         <v>17</v>
       </c>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -2478,8 +2791,12 @@
         <v>57</v>
       </c>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="6">
         <v>4000</v>
       </c>
@@ -2493,8 +2810,12 @@
         <v>35760</v>
       </c>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>35745</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -2503,11 +2824,15 @@
         <v>2.46</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -2519,8 +2844,12 @@
         <v>40960</v>
       </c>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>41040</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
@@ -2532,8 +2861,12 @@
         <v>40530</v>
       </c>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>40470</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" s="6"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -2545,8 +2878,12 @@
         <v>40590</v>
       </c>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>40510</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" s="6"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -2558,8 +2895,12 @@
         <v>92505</v>
       </c>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>92549.5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -2571,8 +2912,12 @@
         <v>961</v>
       </c>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -2584,11 +2929,15 @@
         <v>96.26</v>
       </c>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>96.31</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
       <c r="F37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1">
         <v>17</v>
@@ -2597,8 +2946,12 @@
         <v>17</v>
       </c>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="6"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -2610,6 +2963,10 @@
         <v>57</v>
       </c>
       <c r="I38" s="1"/>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Wyniki 3/S1/S1-GraphQL.xlsx
+++ b/Wyniki 3/S1/S1-GraphQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC11B4-A7E9-4C46-95B5-7AD2A7FAB11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F850540E-7024-4960-AE63-BF3F104EC0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,7 +2417,7 @@
   <dimension ref="E7:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
